--- a/Resources/Income by Country.xlsx
+++ b/Resources/Income by Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecilia\Desktop\UTSC\Project1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F1D14-A648-4A05-B22A-D48E1CC88C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CAE05-0F04-4DAC-8A48-A7B6BA51EDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00DE623E-953A-444E-857D-0F5E356EDA91}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5703" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5690" uniqueCount="218">
   <si>
     <t>Country</t>
   </si>
@@ -696,18 +696,6 @@
   <si>
     <t xml:space="preserve"> a;b</t>
   </si>
-  <si>
-    <t xml:space="preserve"> d</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b;f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> g</t>
-  </si>
 </sst>
 </file>
 
@@ -55957,10 +55945,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B120A44-1307-45C8-92F7-35DDF195494B}">
-  <dimension ref="A1:AE209"/>
+  <dimension ref="A1:AD209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55968,7 +55956,7 @@
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -56059,11 +56047,8 @@
       <c r="AD1">
         <v>2018</v>
       </c>
-      <c r="AE1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -56155,7 +56140,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -56247,7 +56232,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -56339,7 +56324,7 @@
         <v>13639</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -56431,7 +56416,7 @@
         <v>48641</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -56523,7 +56508,7 @@
         <v>5555</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -56615,7 +56600,7 @@
         <v>22201</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56707,7 +56692,7 @@
         <v>17611</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -56799,7 +56784,7 @@
         <v>9277</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -56891,7 +56876,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -56983,7 +56968,7 @@
         <v>46231</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -57075,7 +57060,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -57167,7 +57152,7 @@
         <v>28395</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -57259,7 +57244,7 @@
         <v>40399</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -57351,7 +57336,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -57443,7 +57428,7 @@
         <v>15912</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -57535,7 +57520,7 @@
         <v>17039</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -57627,7 +57612,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -57719,7 +57704,7 @@
         <v>7136</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -57811,7 +57796,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -57903,7 +57888,7 @@
         <v>8609</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -57995,7 +57980,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -58087,7 +58072,7 @@
         <v>12690</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -58179,7 +58164,7 @@
         <v>15951</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -58271,7 +58256,7 @@
         <v>14068</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -58362,11 +58347,8 @@
       <c r="AD26">
         <v>76389</v>
       </c>
-      <c r="AE26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -58458,7 +58440,7 @@
         <v>19646</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -58550,7 +58532,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -58642,7 +58624,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -58734,7 +58716,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -58826,7 +58808,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -58918,7 +58900,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -59010,7 +58992,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -59102,7 +59084,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -59194,7 +59176,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -59286,7 +59268,7 @@
         <v>21972</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -59378,7 +59360,7 @@
         <v>16127</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -59470,7 +59452,7 @@
         <v>12896</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -59562,7 +59544,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -59654,7 +59636,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -59746,7 +59728,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -59838,7 +59820,7 @@
         <v>14790</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -59930,7 +59912,7 @@
         <v>23061</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -60021,11 +60003,8 @@
       <c r="AD44">
         <v>7811</v>
       </c>
-      <c r="AE44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -60117,7 +60096,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -60209,7 +60188,7 @@
         <v>31597</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -60301,7 +60280,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -60393,7 +60372,7 @@
         <v>48836</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -60484,11 +60463,8 @@
       <c r="AD49">
         <v>3601</v>
       </c>
-      <c r="AE49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -60580,7 +60556,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -60672,7 +60648,7 @@
         <v>15074</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -60764,7 +60740,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -60856,7 +60832,7 @@
         <v>10744</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -60948,7 +60924,7 @@
         <v>6973</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -61040,7 +61016,7 @@
         <v>17796</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -61131,11 +61107,8 @@
       <c r="AD56">
         <v>1708</v>
       </c>
-      <c r="AE56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -61227,7 +61200,7 @@
         <v>30379</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -61319,7 +61292,7 @@
         <v>9359</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -61411,7 +61384,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -61503,7 +61476,7 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -61595,7 +61568,7 @@
         <v>41779</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -61687,7 +61660,7 @@
         <v>40511</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -61779,7 +61752,7 @@
         <v>15794</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -64815,7 +64788,7 @@
         <v>26301</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -64907,7 +64880,7 @@
         <v>11136</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -64999,7 +64972,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -65091,7 +65064,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -65182,11 +65155,8 @@
       <c r="AD100">
         <v>11685</v>
       </c>
-      <c r="AE100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -65277,11 +65247,8 @@
       <c r="AD101">
         <v>99732</v>
       </c>
-      <c r="AE101" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -65373,7 +65340,7 @@
         <v>29775</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -65465,7 +65432,7 @@
         <v>65543</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -65557,7 +65524,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -65649,7 +65616,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -65741,7 +65708,7 @@
         <v>27227</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -65833,7 +65800,7 @@
         <v>12549</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -65925,7 +65892,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -66017,7 +65984,7 @@
         <v>34795</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -66109,7 +66076,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -66201,7 +66168,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -67765,7 +67732,7 @@
         <v>5086</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -67857,7 +67824,7 @@
         <v>12874</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -67949,7 +67916,7 @@
         <v>68059</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -68041,7 +68008,7 @@
         <v>37039</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -68133,7 +68100,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -68225,7 +68192,7 @@
         <v>16720</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -68317,7 +68284,7 @@
         <v>5314</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -68409,7 +68376,7 @@
         <v>20455</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -68501,7 +68468,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -68593,7 +68560,7 @@
         <v>11720</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -68685,7 +68652,7 @@
         <v>12323</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -68777,7 +68744,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -68869,7 +68836,7 @@
         <v>27626</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -68961,7 +68928,7 @@
         <v>27935</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -69052,11 +69019,8 @@
       <c r="AD142">
         <v>110489</v>
       </c>
-      <c r="AE142" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -69148,7 +69112,7 @@
         <v>23906</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -69240,7 +69204,7 @@
         <v>25036</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -69332,7 +69296,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -69424,7 +69388,7 @@
         <v>26770</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -69516,7 +69480,7 @@
         <v>11528</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -69608,7 +69572,7 @@
         <v>11746</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -69700,7 +69664,7 @@
         <v>5885</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -69792,7 +69756,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -69884,7 +69848,7 @@
         <v>49338</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -69976,7 +69940,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -70068,7 +70032,7 @@
         <v>15218</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -70160,7 +70124,7 @@
         <v>25077</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -70252,7 +70216,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -70343,11 +70307,8 @@
       <c r="AD156">
         <v>83793</v>
       </c>
-      <c r="AE156" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -70439,7 +70400,7 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -70531,7 +70492,7 @@
         <v>32143</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -70623,7 +70584,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -70715,7 +70676,7 @@
         <v>11756</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -70806,11 +70767,8 @@
       <c r="AD161">
         <v>1455</v>
       </c>
-      <c r="AE161" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -70902,7 +70860,7 @@
         <v>35041</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -70994,7 +70952,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -71086,7 +71044,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -71178,7 +71136,7 @@
         <v>11933</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -71270,7 +71228,7 @@
         <v>47955</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -71362,7 +71320,7 @@
         <v>59375</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -71453,11 +71411,8 @@
       <c r="AD168">
         <v>2725</v>
       </c>
-      <c r="AE168" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -71549,7 +71504,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -71641,7 +71596,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -71733,7 +71688,7 @@
         <v>16129</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -71825,7 +71780,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -71917,7 +71872,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -72009,7 +71964,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -72101,7 +72056,7 @@
         <v>28497</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -72193,7 +72148,7 @@
         <v>10677</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -72285,7 +72240,7 @@
         <v>24905</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -72377,7 +72332,7 @@
         <v>16407</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -72469,7 +72424,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -72561,7 +72516,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -72653,7 +72608,7 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -72745,7 +72700,7 @@
         <v>66912</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -72837,7 +72792,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -72929,7 +72884,7 @@
         <v>56140</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -73021,7 +72976,7 @@
         <v>19435</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -73113,7 +73068,7 @@
         <v>6462</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -73205,7 +73160,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -73296,11 +73251,8 @@
       <c r="AD188">
         <v>9070</v>
       </c>
-      <c r="AE188" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -73392,7 +73344,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -73483,11 +73435,8 @@
       <c r="AD190">
         <v>1433</v>
       </c>
-      <c r="AE190" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -73579,7 +73528,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
